--- a/Planilha-C-Parser.xlsx
+++ b/Planilha-C-Parser.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Regra Sintática</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>diferença</t>
   </si>
 </sst>
 </file>
@@ -329,7 +332,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -358,13 +364,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D84" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:D84"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:E84" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E84"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="Regra Sintática"/>
     <tableColumn id="2" name="Rótulos Manuais"/>
     <tableColumn id="3" name="Rótulos Automáticos"/>
-    <tableColumn id="4" name="comentários"/>
+    <tableColumn id="4" name="diferença" dataDxfId="0">
+      <calculatedColumnFormula>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="comentários"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -657,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D84"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,9 +678,10 @@
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,672 +692,1257 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
       <c r="B31">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
       <c r="B42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
       <c r="B47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
       <c r="B52">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>55</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
       <c r="B59">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
       <c r="B60">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>66</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>67</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>68</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>69</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>70</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>71</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>72</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>73</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>74</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>75</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>76</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>77</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>78</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>79</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>80</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>81</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>82</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>83</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>84</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>85</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B84">
         <f>SUM(B2:B83)</f>
         <v>101</v>
+      </c>
+      <c r="C84" s="3">
+        <f>SUBTOTAL(109,C2:C83)</f>
+        <v>70</v>
+      </c>
+      <c r="D84">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>-31</v>
       </c>
     </row>
   </sheetData>

--- a/Planilha-C-Parser.xlsx
+++ b/Planilha-C-Parser.xlsx
@@ -366,6 +366,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:E84" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:E84"/>
+  <sortState ref="A2:E84">
+    <sortCondition descending="1" ref="D1:D84"/>
+  </sortState>
   <tableColumns count="5">
     <tableColumn id="1" name="Regra Sintática"/>
     <tableColumn id="2" name="Rótulos Manuais"/>
@@ -669,7 +672,7 @@
   <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,119 +702,119 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
       <c r="C2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
       <c r="D4">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
+      <c r="A9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
@@ -820,52 +823,52 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -880,32 +883,32 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1000,22 +1003,22 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1030,7 +1033,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1045,13 +1048,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
@@ -1060,37 +1063,37 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1105,22 +1108,22 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1135,28 +1138,28 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D32">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1180,7 +1183,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1195,7 +1198,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1210,37 +1213,37 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1255,13 +1258,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
@@ -1270,7 +1273,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1285,7 +1288,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1300,67 +1303,67 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1375,37 +1378,37 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1420,7 +1423,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1435,7 +1438,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1450,22 +1453,22 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1480,22 +1483,22 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1510,7 +1513,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1525,7 +1528,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1540,7 +1543,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1555,37 +1558,37 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1600,37 +1603,37 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D63">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -1645,22 +1648,22 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -1675,257 +1678,257 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D71">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D80">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D82">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>-1</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>0</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -1934,7 +1937,7 @@
       </c>
       <c r="B84">
         <f>SUM(B2:B83)</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C84" s="3">
         <f>SUBTOTAL(109,C2:C83)</f>
@@ -1942,7 +1945,7 @@
       </c>
       <c r="D84">
         <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
-        <v>-31</v>
+        <v>-32</v>
       </c>
     </row>
   </sheetData>

--- a/Planilha-C-Parser.xlsx
+++ b/Planilha-C-Parser.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="120">
   <si>
     <t>Regra Sintática</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,16 +410,42 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor theme="0" tint="-0.34998626667073579"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -427,11 +453,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -448,37 +585,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -495,7 +637,33 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -534,19 +702,19 @@
     <sortCondition ref="A1:A83"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="7" name="Ordem" dataDxfId="10"/>
-    <tableColumn id="1" name="Regra Sintática" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="4"/>
-    <tableColumn id="2" name="Rótulos Manuais" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="3">
+    <tableColumn id="7" name="Ordem" dataDxfId="11"/>
+    <tableColumn id="1" name="Regra Sintática" totalsRowLabel="Total" dataDxfId="10" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="Rótulos Manuais" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="3">
       <totalsRowFormula>SUM(Tabela1[Rótulos Manuais])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Rótulos Automáticos" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="2">
+    <tableColumn id="3" name="Rótulos Automáticos" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="2">
       <totalsRowFormula>SUM(Tabela1[Rótulos Automáticos])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="diferença" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="1">
+    <tableColumn id="4" name="diferença" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="1">
       <calculatedColumnFormula>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</calculatedColumnFormula>
       <totalsRowFormula>Tabela1[[#Totals],[Rótulos Automáticos]]-Tabela1[[#Totals],[Rótulos Manuais]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="comentários" totalsRowFunction="count" dataDxfId="6" totalsRowDxfId="11"/>
+    <tableColumn id="5" name="comentários" dataDxfId="6" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -841,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E83"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,7 +1043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -896,7 +1064,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -938,7 +1106,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -980,7 +1148,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1064,7 +1232,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1169,7 +1337,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1484,7 +1652,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -1715,7 +1883,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -1820,7 +1988,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -1925,7 +2093,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -2613,14 +2781,10 @@
         <f>Tabela1[[#Totals],[Rótulos Automáticos]]-Tabela1[[#Totals],[Rótulos Manuais]]</f>
         <v>-32</v>
       </c>
-      <c r="F84" s="4">
-        <f>SUBTOTAL(103,Tabela1[comentários])</f>
-        <v>82</v>
-      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C87">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2634,12 +2798,211 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="54.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>30</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="16">
+        <v>7</v>
+      </c>
+      <c r="D2" s="16">
+        <v>1</v>
+      </c>
+      <c r="E2" s="16">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>44</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="16">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16">
+        <v>2</v>
+      </c>
+      <c r="E3" s="16">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>16</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="16">
+        <v>3</v>
+      </c>
+      <c r="D4" s="16">
+        <v>3</v>
+      </c>
+      <c r="E4" s="16">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>17</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>18</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="16">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>19</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>-1</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>20</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="16">
+        <v>1</v>
+      </c>
+      <c r="D8" s="16">
+        <v>1</v>
+      </c>
+      <c r="E8" s="16">
+        <f>Tabela1[[#This Row],[Rótulos Automáticos]]-Tabela1[[#This Row],[Rótulos Manuais]]</f>
+        <v>-1</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="19">
+        <f>SUM(Tabela1[Rótulos Manuais])</f>
+        <v>102</v>
+      </c>
+      <c r="D9" s="19">
+        <f>SUM(Tabela1[Rótulos Automáticos])</f>
+        <v>70</v>
+      </c>
+      <c r="E9" s="19">
+        <f>Tabela1[[#Totals],[Rótulos Automáticos]]-Tabela1[[#Totals],[Rótulos Manuais]]</f>
+        <v>-32</v>
+      </c>
+      <c r="F9" s="20">
+        <f>SUBTOTAL(103,Tabela1[comentários])</f>
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
